--- a/CDE_ID_detective_revamp/KnowledgeBase/Compiled_CORE_CDEs list_English_as of 2023_06-03.xlsx
+++ b/CDE_ID_detective_revamp/KnowledgeBase/Compiled_CORE_CDEs list_English_as of 2023_06-03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\KnowledgeBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5368C-9509-4F65-9E5C-BB85068487F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F3B83-B12D-43B6-B3F6-61CA079930F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61335" yWindow="7785" windowWidth="28800" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -4438,25 +4438,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4465,19 +4465,19 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4813,8 +4813,8 @@
   <dimension ref="A1:Y305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37984,15 +37984,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9f570485-74fd-4e0d-9219-7c1a63b44316">
@@ -38001,6 +37992,15 @@
     <TaxCatchAll xmlns="c3fa292e-0b07-4c07-a7dc-3f3fbcc3e468" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38023,14 +38023,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58043800-8E6A-4223-9398-04CB459F6CC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3958382E-9F13-48B9-81A5-6AC249982787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -38045,4 +38037,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58043800-8E6A-4223-9398-04CB459F6CC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>